--- a/login_senha.xlsx
+++ b/login_senha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Área de Trabalho\Projeto Python\Painel SGE\Painel 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A464AE3E-03AB-4A40-95ED-A324A231A390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E962289-C824-4438-9D41-503A9D856DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="176">
   <si>
     <t>CPF</t>
   </si>
@@ -551,19 +551,13 @@
   </si>
   <si>
     <t>ESCOLA ESTADUAL PROFESSORA DIVA GOMES DA SILVEIRA COSTA</t>
-  </si>
-  <si>
-    <t>FUNDAÇÃO GETULIO VARGAS</t>
-  </si>
-  <si>
-    <t>123.456.789-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -618,9 +612,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -658,7 +652,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -764,7 +758,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -906,7 +900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -914,20 +908,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -941,7 +935,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -952,7 +946,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -963,7 +957,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -974,7 +968,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -985,7 +979,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -996,7 +990,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1007,7 +1001,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1012,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1023,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1040,7 +1034,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1051,7 +1045,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1062,7 +1056,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1067,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1084,7 +1078,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1095,7 +1089,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1106,7 +1100,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1117,7 +1111,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1128,7 +1122,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1139,7 +1133,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1150,7 +1144,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1161,7 +1155,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1172,7 +1166,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1183,7 +1177,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1194,7 +1188,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1205,7 +1199,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1216,7 +1210,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1227,7 +1221,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1238,7 +1232,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1249,7 +1243,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1260,7 +1254,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1271,7 +1265,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1282,7 +1276,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1293,7 +1287,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1304,7 +1298,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -1315,7 +1309,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1326,7 +1320,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1337,7 +1331,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -1348,7 +1342,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -1359,7 +1353,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -1370,7 +1364,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -1381,7 +1375,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -1392,7 +1386,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1403,7 +1397,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -1414,7 +1408,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -1425,7 +1419,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -1436,7 +1430,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -1447,7 +1441,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -1458,7 +1452,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -1469,7 +1463,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -1480,7 +1474,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -1491,7 +1485,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -1502,7 +1496,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -1513,7 +1507,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -1524,7 +1518,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -1535,7 +1529,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -1546,7 +1540,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -1557,7 +1551,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -1568,7 +1562,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -1579,7 +1573,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -1590,7 +1584,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -1601,7 +1595,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1612,7 +1606,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1623,7 +1617,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -1634,7 +1628,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -1645,7 +1639,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -1656,7 +1650,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -1667,7 +1661,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -1678,7 +1672,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1689,7 +1683,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -1700,7 +1694,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -1711,7 +1705,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -1722,7 +1716,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -1733,7 +1727,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1744,7 +1738,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -1755,7 +1749,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +1760,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -1777,7 +1771,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -1788,7 +1782,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -1799,7 +1793,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -1810,7 +1804,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1821,7 +1815,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -1832,7 +1826,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>55</v>
       </c>
@@ -1843,7 +1837,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -1854,7 +1848,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -1865,7 +1859,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>35</v>
       </c>
@@ -1876,7 +1870,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -1887,7 +1881,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>57</v>
       </c>
@@ -1898,7 +1892,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -1909,7 +1903,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -1920,7 +1914,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>37</v>
       </c>
@@ -1931,7 +1925,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -1942,7 +1936,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -1953,7 +1947,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>113</v>
       </c>
@@ -1964,7 +1958,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -1975,7 +1969,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -1987,7 +1981,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -1998,608 +1992,597 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>176</v>
-      </c>
-      <c r="B98" t="s">
-        <v>177</v>
+        <v>118</v>
+      </c>
+      <c r="C98">
+        <v>17021502</v>
       </c>
       <c r="D98">
         <v>123456</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>118</v>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C99">
-        <v>17021502</v>
+        <v>17021685</v>
       </c>
       <c r="D99">
         <v>123456</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C100">
-        <v>17021685</v>
+        <v>17021553</v>
       </c>
       <c r="D100">
         <v>123456</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C101">
-        <v>17021553</v>
+        <v>17052351</v>
       </c>
       <c r="D101">
         <v>123456</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C102">
-        <v>17052351</v>
+        <v>17021243</v>
       </c>
       <c r="D102">
         <v>123456</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C103">
-        <v>17021243</v>
+        <v>17023181</v>
       </c>
       <c r="D103">
         <v>123456</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C104">
-        <v>17023181</v>
+        <v>17048826</v>
       </c>
       <c r="D104">
         <v>123456</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C105">
-        <v>17048826</v>
+        <v>17020336</v>
       </c>
       <c r="D105">
         <v>123456</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C106">
-        <v>17020336</v>
+        <v>17018382</v>
       </c>
       <c r="D106">
         <v>123456</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C107">
-        <v>17018382</v>
+        <v>17021251</v>
       </c>
       <c r="D107">
         <v>123456</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C108">
-        <v>17021251</v>
+        <v>17020590</v>
       </c>
       <c r="D108">
         <v>123456</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C109">
-        <v>17020590</v>
+        <v>17052963</v>
       </c>
       <c r="D109">
         <v>123456</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C110">
-        <v>17052963</v>
+        <v>17022819</v>
       </c>
       <c r="D110">
         <v>123456</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C111">
-        <v>17022819</v>
+        <v>17017912</v>
       </c>
       <c r="D111">
         <v>123456</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C112">
-        <v>17017912</v>
+        <v>17055857</v>
       </c>
       <c r="D112">
         <v>123456</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C113">
-        <v>17055857</v>
+        <v>17021561</v>
       </c>
       <c r="D113">
         <v>123456</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C114">
-        <v>17021561</v>
+        <v>17017165</v>
       </c>
       <c r="D114">
         <v>123456</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C115">
-        <v>17017165</v>
+        <v>17020140</v>
       </c>
       <c r="D115">
         <v>123456</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C116">
-        <v>17020140</v>
+        <v>17023319</v>
       </c>
       <c r="D116">
         <v>123456</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="C117">
-        <v>17023319</v>
+        <v>17040051</v>
       </c>
       <c r="D117">
         <v>123456</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C118">
-        <v>17040051</v>
+        <v>17021596</v>
       </c>
       <c r="D118">
         <v>123456</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C119">
-        <v>17021596</v>
+        <v>17022320</v>
       </c>
       <c r="D119">
         <v>123456</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C120">
-        <v>17022320</v>
+        <v>17036917</v>
       </c>
       <c r="D120">
         <v>123456</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C121">
-        <v>17036917</v>
+        <v>17021146</v>
       </c>
       <c r="D121">
         <v>123456</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C122">
-        <v>17021146</v>
+        <v>17018390</v>
       </c>
       <c r="D122">
         <v>123456</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C123">
-        <v>17018390</v>
+        <v>17020581</v>
       </c>
       <c r="D123">
         <v>123456</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C124">
-        <v>17020581</v>
+        <v>17022312</v>
       </c>
       <c r="D124">
         <v>123456</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C125">
-        <v>17022312</v>
+        <v>17021774</v>
       </c>
       <c r="D125">
         <v>123456</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C126">
-        <v>17021774</v>
+        <v>17022339</v>
       </c>
       <c r="D126">
         <v>123456</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C127">
-        <v>17022339</v>
+        <v>17040035</v>
       </c>
       <c r="D127">
         <v>123456</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C128">
-        <v>17040035</v>
+        <v>17022860</v>
       </c>
       <c r="D128">
         <v>123456</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C129">
-        <v>17022860</v>
+        <v>17020611</v>
       </c>
       <c r="D129">
         <v>123456</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C130">
-        <v>17020611</v>
+        <v>17021588</v>
       </c>
       <c r="D130">
         <v>123456</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C131">
-        <v>17021588</v>
+        <v>17038359</v>
       </c>
       <c r="D131">
         <v>123456</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C132">
-        <v>17038359</v>
+        <v>17018404</v>
       </c>
       <c r="D132">
         <v>123456</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C133">
-        <v>17018404</v>
+        <v>17021731</v>
       </c>
       <c r="D133">
         <v>123456</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C134">
-        <v>17021731</v>
+        <v>17020360</v>
       </c>
       <c r="D134">
         <v>123456</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C135">
-        <v>17020360</v>
+        <v>17040841</v>
       </c>
       <c r="D135">
         <v>123456</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C136">
-        <v>17040841</v>
+        <v>17020158</v>
       </c>
       <c r="D136">
         <v>123456</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C137">
-        <v>17020158</v>
+        <v>17053315</v>
       </c>
       <c r="D137">
         <v>123456</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C138">
-        <v>17053315</v>
+        <v>17021600</v>
       </c>
       <c r="D138">
         <v>123456</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C139">
-        <v>17021600</v>
+        <v>17017203</v>
       </c>
       <c r="D139">
         <v>123456</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C140">
-        <v>17017203</v>
+        <v>17021707</v>
       </c>
       <c r="D140">
         <v>123456</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C141">
-        <v>17021707</v>
+        <v>17021804</v>
       </c>
       <c r="D141">
         <v>123456</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C142">
-        <v>17021804</v>
+        <v>17106800</v>
       </c>
       <c r="D142">
         <v>123456</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C143">
-        <v>17106800</v>
+        <v>17050278</v>
       </c>
       <c r="D143">
         <v>123456</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C144">
-        <v>17050278</v>
+        <v>17043069</v>
       </c>
       <c r="D144">
         <v>123456</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C145">
-        <v>17043069</v>
+        <v>17018820</v>
       </c>
       <c r="D145">
         <v>123456</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C146">
-        <v>17018820</v>
+        <v>17043026</v>
       </c>
       <c r="D146">
         <v>123456</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C147">
-        <v>17043026</v>
+        <v>17039150</v>
       </c>
       <c r="D147">
         <v>123456</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C148">
-        <v>17039150</v>
+        <v>17052823</v>
       </c>
       <c r="D148">
         <v>123456</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C149">
-        <v>17052823</v>
+        <v>17051746</v>
       </c>
       <c r="D149">
         <v>123456</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C150">
-        <v>17051746</v>
+        <v>17049253</v>
       </c>
       <c r="D150">
         <v>123456</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C151">
-        <v>17049253</v>
+        <v>17107806</v>
       </c>
       <c r="D151">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C152">
-        <v>17107806</v>
-      </c>
-      <c r="D152">
         <v>123456</v>
       </c>
     </row>

--- a/login_senha.xlsx
+++ b/login_senha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Área de Trabalho\Projeto Python\Painel SGE\Painel 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E962289-C824-4438-9D41-503A9D856DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA90CBE-79F0-412E-AA78-78C34AA33B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="170">
   <si>
     <t>CPF</t>
   </si>
@@ -163,12 +163,6 @@
     <t>SUSANY ROCHA ALBINO</t>
   </si>
   <si>
-    <t>912.132.741-68</t>
-  </si>
-  <si>
-    <t>SIMONE MACHADO GOMES</t>
-  </si>
-  <si>
     <t>942.860.191-87</t>
   </si>
   <si>
@@ -370,15 +364,6 @@
     <t>SENHA</t>
   </si>
   <si>
-    <t>ALEX RILIE MOREIRA RODRIGUES</t>
-  </si>
-  <si>
-    <t>MARCIA PONCE</t>
-  </si>
-  <si>
-    <t>899.900.642-53</t>
-  </si>
-  <si>
     <t>CENTRO DE ENSINO MEDIO ARY RIBEIRO VALADAO FILHO</t>
   </si>
   <si>
@@ -545,9 +530,6 @@
   </si>
   <si>
     <t>626.250.041-34</t>
-  </si>
-  <si>
-    <t>832.866.401-15</t>
   </si>
   <si>
     <t>ESCOLA ESTADUAL PROFESSORA DIVA GOMES DA SILVEIRA COSTA</t>
@@ -588,11 +570,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -908,17 +887,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -929,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -942,8 +921,8 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>123456</v>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -953,19 +932,19 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>123456</v>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4">
-        <v>123456</v>
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -975,8 +954,8 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>123456</v>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -986,8 +965,8 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>123456</v>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -997,8 +976,8 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>123456</v>
+      <c r="D7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,8 +987,8 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>123456</v>
+      <c r="D8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1019,8 +998,8 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
-        <v>123456</v>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1030,8 +1009,8 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
-        <v>123456</v>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1041,8 +1020,8 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
-        <v>123456</v>
+      <c r="D11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1052,8 +1031,8 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="D12">
-        <v>123456</v>
+      <c r="D12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1063,8 +1042,8 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="D13">
-        <v>123456</v>
+      <c r="D13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1074,8 +1053,8 @@
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
-        <v>123456</v>
+      <c r="D14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,8 +1064,8 @@
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="D15">
-        <v>123456</v>
+      <c r="D15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1096,8 +1075,8 @@
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="D16">
-        <v>123456</v>
+      <c r="D16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1107,8 +1086,8 @@
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="D17">
-        <v>123456</v>
+      <c r="D17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,8 +1097,8 @@
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="D18">
-        <v>123456</v>
+      <c r="D18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1129,8 +1108,8 @@
       <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="D19">
-        <v>123456</v>
+      <c r="D19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1140,8 +1119,8 @@
       <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="D20">
-        <v>123456</v>
+      <c r="D20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1151,8 +1130,8 @@
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="D21">
-        <v>123456</v>
+      <c r="D21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1162,8 +1141,8 @@
       <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="D22">
-        <v>123456</v>
+      <c r="D22" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1173,8 +1152,8 @@
       <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="D23">
-        <v>123456</v>
+      <c r="D23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1184,8 +1163,8 @@
       <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="D24">
-        <v>123456</v>
+      <c r="D24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1195,8 +1174,8 @@
       <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="D25">
-        <v>123456</v>
+      <c r="D25" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1206,8 +1185,8 @@
       <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="D26">
-        <v>123456</v>
+      <c r="D26" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1217,8 +1196,8 @@
       <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="D27">
-        <v>123456</v>
+      <c r="D27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1228,8 +1207,8 @@
       <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="D28">
-        <v>123456</v>
+      <c r="D28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,8 +1218,8 @@
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="D29">
-        <v>123456</v>
+      <c r="D29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1250,8 +1229,8 @@
       <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="D30">
-        <v>123456</v>
+      <c r="D30" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1261,8 +1240,8 @@
       <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="D31">
-        <v>123456</v>
+      <c r="D31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,8 +1251,8 @@
       <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="D32">
-        <v>123456</v>
+      <c r="D32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1283,8 +1262,8 @@
       <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="D33">
-        <v>123456</v>
+      <c r="D33" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1294,8 +1273,8 @@
       <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="D34">
-        <v>123456</v>
+      <c r="D34" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1305,8 +1284,8 @@
       <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="D35">
-        <v>123456</v>
+      <c r="D35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1316,8 +1295,8 @@
       <c r="B36" t="s">
         <v>68</v>
       </c>
-      <c r="D36">
-        <v>123456</v>
+      <c r="D36" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1327,8 +1306,8 @@
       <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="D37">
-        <v>123456</v>
+      <c r="D37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1338,8 +1317,8 @@
       <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="D38">
-        <v>123456</v>
+      <c r="D38" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1349,8 +1328,8 @@
       <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="D39">
-        <v>123456</v>
+      <c r="D39" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1360,8 +1339,8 @@
       <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="D40">
-        <v>123456</v>
+      <c r="D40" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1371,8 +1350,8 @@
       <c r="B41" t="s">
         <v>78</v>
       </c>
-      <c r="D41">
-        <v>123456</v>
+      <c r="D41" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,52 +1361,52 @@
       <c r="B42" t="s">
         <v>80</v>
       </c>
-      <c r="D42">
-        <v>123456</v>
+      <c r="D42" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43">
-        <v>123456</v>
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44">
-        <v>123456</v>
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45">
-        <v>123456</v>
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46">
-        <v>123456</v>
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1437,437 +1416,437 @@
       <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="D47">
-        <v>123456</v>
+      <c r="D47" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48">
-        <v>123456</v>
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49">
-        <v>123456</v>
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50">
-        <v>123456</v>
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51">
-        <v>123456</v>
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52">
-        <v>123456</v>
+        <v>92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53">
-        <v>123456</v>
+        <v>94</v>
+      </c>
+      <c r="D53" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54">
-        <v>123456</v>
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55">
-        <v>123456</v>
+        <v>48</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56">
-        <v>123456</v>
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57">
-        <v>123456</v>
+        <v>66</v>
+      </c>
+      <c r="D57" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58">
-        <v>123456</v>
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59">
-        <v>123456</v>
+        <v>70</v>
+      </c>
+      <c r="D59" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60">
-        <v>123456</v>
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61">
-        <v>123456</v>
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62">
-        <v>123456</v>
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>123456</v>
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64">
-        <v>123456</v>
+        <v>26</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
-      </c>
-      <c r="D65">
-        <v>123456</v>
+        <v>98</v>
+      </c>
+      <c r="D65" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66">
-        <v>123456</v>
+        <v>100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
-      </c>
-      <c r="D67">
-        <v>123456</v>
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68">
-        <v>123456</v>
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69">
-        <v>123456</v>
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70">
-        <v>123456</v>
+        <v>42</v>
+      </c>
+      <c r="D70" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71">
-        <v>123456</v>
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72">
-        <v>123456</v>
+        <v>76</v>
+      </c>
+      <c r="D72" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73">
-        <v>123456</v>
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74">
-        <v>123456</v>
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75">
-        <v>123456</v>
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76">
-        <v>123456</v>
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77">
-        <v>123456</v>
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78">
-        <v>123456</v>
+        <v>44</v>
+      </c>
+      <c r="D78" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79">
-        <v>123456</v>
+        <v>78</v>
+      </c>
+      <c r="D79" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80">
-        <v>123456</v>
+        <v>32</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81">
-        <v>123456</v>
+        <v>52</v>
+      </c>
+      <c r="D81" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
-      </c>
-      <c r="D82">
-        <v>123456</v>
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83">
-        <v>123456</v>
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84">
-        <v>123456</v>
+        <v>34</v>
+      </c>
+      <c r="D84" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85">
-        <v>123456</v>
+        <v>102</v>
+      </c>
+      <c r="D85" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
-      </c>
-      <c r="D86">
-        <v>123456</v>
+        <v>54</v>
+      </c>
+      <c r="D86" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1877,713 +1856,668 @@
       <c r="B87" t="s">
         <v>104</v>
       </c>
-      <c r="D87">
-        <v>123456</v>
+      <c r="D87" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
-      </c>
-      <c r="D88">
-        <v>123456</v>
+        <v>46</v>
+      </c>
+      <c r="D88" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
-      </c>
-      <c r="D89">
-        <v>123456</v>
+        <v>36</v>
+      </c>
+      <c r="D89" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
-      </c>
-      <c r="D90">
-        <v>123456</v>
+        <v>106</v>
+      </c>
+      <c r="D90" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91">
-        <v>123456</v>
+        <v>108</v>
+      </c>
+      <c r="D91" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
-      </c>
-      <c r="D92">
-        <v>123456</v>
+        <v>110</v>
+      </c>
+      <c r="D92" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
-      </c>
-      <c r="D93">
-        <v>123456</v>
+        <v>56</v>
+      </c>
+      <c r="D93" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>113</v>
       </c>
-      <c r="B94" t="s">
-        <v>112</v>
+      <c r="C94">
+        <v>17021502</v>
       </c>
       <c r="D94">
-        <v>123456</v>
+        <v>17021502</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>59</v>
-      </c>
-      <c r="B95" t="s">
-        <v>58</v>
+      <c r="A95" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95">
+        <v>17021685</v>
       </c>
       <c r="D95">
-        <v>123456</v>
+        <v>17021685</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96">
+        <v>17021553</v>
+      </c>
+      <c r="D96">
+        <v>17021553</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97">
+        <v>17052351</v>
+      </c>
+      <c r="D97">
+        <v>17052351</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>116</v>
-      </c>
-      <c r="B97" t="s">
-        <v>174</v>
-      </c>
-      <c r="D97">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="C98">
+        <v>17021243</v>
+      </c>
+      <c r="D98">
+        <v>17021243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C98">
-        <v>17021502</v>
-      </c>
-      <c r="D98">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+      <c r="C99">
+        <v>17023181</v>
+      </c>
+      <c r="D99">
+        <v>17023181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C99">
-        <v>17021685</v>
-      </c>
-      <c r="D99">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+      <c r="C100">
+        <v>17048826</v>
+      </c>
+      <c r="D100">
+        <v>17048826</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C100">
-        <v>17021553</v>
-      </c>
-      <c r="D100">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+      <c r="C101">
+        <v>17020336</v>
+      </c>
+      <c r="D101">
+        <v>17020336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C101">
-        <v>17052351</v>
-      </c>
-      <c r="D101">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+      <c r="C102">
+        <v>17018382</v>
+      </c>
+      <c r="D102">
+        <v>17018382</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C102">
-        <v>17021243</v>
-      </c>
-      <c r="D102">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+      <c r="C103">
+        <v>17021251</v>
+      </c>
+      <c r="D103">
+        <v>17021251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C103">
-        <v>17023181</v>
-      </c>
-      <c r="D103">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+      <c r="C104">
+        <v>17020590</v>
+      </c>
+      <c r="D104">
+        <v>17020590</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C104">
-        <v>17048826</v>
-      </c>
-      <c r="D104">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+      <c r="C105">
+        <v>17052963</v>
+      </c>
+      <c r="D105">
+        <v>17052963</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C105">
-        <v>17020336</v>
-      </c>
-      <c r="D105">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+      <c r="C106">
+        <v>17022819</v>
+      </c>
+      <c r="D106">
+        <v>17022819</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C106">
-        <v>17018382</v>
-      </c>
-      <c r="D106">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+      <c r="C107">
+        <v>17017912</v>
+      </c>
+      <c r="D107">
+        <v>17017912</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C107">
-        <v>17021251</v>
-      </c>
-      <c r="D107">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+      <c r="C108">
+        <v>17055857</v>
+      </c>
+      <c r="D108">
+        <v>17055857</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C108">
-        <v>17020590</v>
-      </c>
-      <c r="D108">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+      <c r="C109">
+        <v>17021561</v>
+      </c>
+      <c r="D109">
+        <v>17021561</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C109">
-        <v>17052963</v>
-      </c>
-      <c r="D109">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+      <c r="C110">
+        <v>17017165</v>
+      </c>
+      <c r="D110">
+        <v>17017165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C110">
-        <v>17022819</v>
-      </c>
-      <c r="D110">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+      <c r="C111">
+        <v>17020140</v>
+      </c>
+      <c r="D111">
+        <v>17020140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112">
+        <v>17023319</v>
+      </c>
+      <c r="D112">
+        <v>17023319</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C111">
-        <v>17017912</v>
-      </c>
-      <c r="D111">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+      <c r="C113">
+        <v>17040051</v>
+      </c>
+      <c r="D113">
+        <v>17040051</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C112">
-        <v>17055857</v>
-      </c>
-      <c r="D112">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+      <c r="C114">
+        <v>17021596</v>
+      </c>
+      <c r="D114">
+        <v>17021596</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C113">
-        <v>17021561</v>
-      </c>
-      <c r="D113">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+      <c r="C115">
+        <v>17022320</v>
+      </c>
+      <c r="D115">
+        <v>17022320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C114">
-        <v>17017165</v>
-      </c>
-      <c r="D114">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+      <c r="C116">
+        <v>17036917</v>
+      </c>
+      <c r="D116">
+        <v>17036917</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C115">
-        <v>17020140</v>
-      </c>
-      <c r="D115">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C116">
-        <v>17023319</v>
-      </c>
-      <c r="D116">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+      <c r="C117">
+        <v>17021146</v>
+      </c>
+      <c r="D117">
+        <v>17021146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C117">
-        <v>17040051</v>
-      </c>
-      <c r="D117">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+      <c r="C118">
+        <v>17018390</v>
+      </c>
+      <c r="D118">
+        <v>17018390</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C118">
-        <v>17021596</v>
-      </c>
-      <c r="D118">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+      <c r="C119">
+        <v>17020581</v>
+      </c>
+      <c r="D119">
+        <v>17020581</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C119">
-        <v>17022320</v>
-      </c>
-      <c r="D119">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+      <c r="C120">
+        <v>17022312</v>
+      </c>
+      <c r="D120">
+        <v>17022312</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C120">
-        <v>17036917</v>
-      </c>
-      <c r="D120">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+      <c r="C121">
+        <v>17021774</v>
+      </c>
+      <c r="D121">
+        <v>17021774</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C121">
-        <v>17021146</v>
-      </c>
-      <c r="D121">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+      <c r="C122">
+        <v>17022339</v>
+      </c>
+      <c r="D122">
+        <v>17022339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C122">
-        <v>17018390</v>
-      </c>
-      <c r="D122">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+      <c r="C123">
+        <v>17040035</v>
+      </c>
+      <c r="D123">
+        <v>17040035</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C123">
-        <v>17020581</v>
-      </c>
-      <c r="D123">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+      <c r="C124">
+        <v>17022860</v>
+      </c>
+      <c r="D124">
+        <v>17022860</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C124">
-        <v>17022312</v>
-      </c>
-      <c r="D124">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+      <c r="C125">
+        <v>17020611</v>
+      </c>
+      <c r="D125">
+        <v>17020611</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C125">
-        <v>17021774</v>
-      </c>
-      <c r="D125">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
+      <c r="C126">
+        <v>17021588</v>
+      </c>
+      <c r="D126">
+        <v>17021588</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C126">
-        <v>17022339</v>
-      </c>
-      <c r="D126">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+      <c r="C127">
+        <v>17038359</v>
+      </c>
+      <c r="D127">
+        <v>17038359</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C127">
-        <v>17040035</v>
-      </c>
-      <c r="D127">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+      <c r="C128">
+        <v>17018404</v>
+      </c>
+      <c r="D128">
+        <v>17018404</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C128">
-        <v>17022860</v>
-      </c>
-      <c r="D128">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+      <c r="C129">
+        <v>17021731</v>
+      </c>
+      <c r="D129">
+        <v>17021731</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C129">
-        <v>17020611</v>
-      </c>
-      <c r="D129">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+      <c r="C130">
+        <v>17020360</v>
+      </c>
+      <c r="D130">
+        <v>17020360</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C131">
+        <v>17040841</v>
+      </c>
+      <c r="D131">
+        <v>17040841</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C130">
-        <v>17021588</v>
-      </c>
-      <c r="D130">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+      <c r="C132">
+        <v>17020158</v>
+      </c>
+      <c r="D132">
+        <v>17020158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C131">
-        <v>17038359</v>
-      </c>
-      <c r="D131">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+      <c r="C133">
+        <v>17053315</v>
+      </c>
+      <c r="D133">
+        <v>17053315</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C132">
-        <v>17018404</v>
-      </c>
-      <c r="D132">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+      <c r="C134">
+        <v>17021600</v>
+      </c>
+      <c r="D134">
+        <v>17021600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C133">
-        <v>17021731</v>
-      </c>
-      <c r="D133">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+      <c r="C135">
+        <v>17017203</v>
+      </c>
+      <c r="D135">
+        <v>17017203</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C134">
-        <v>17020360</v>
-      </c>
-      <c r="D134">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C135">
-        <v>17040841</v>
-      </c>
-      <c r="D135">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+      <c r="C136">
+        <v>17021707</v>
+      </c>
+      <c r="D136">
+        <v>17021707</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C136">
-        <v>17020158</v>
-      </c>
-      <c r="D136">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+      <c r="C137">
+        <v>17021804</v>
+      </c>
+      <c r="D137">
+        <v>17021804</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C137">
-        <v>17053315</v>
-      </c>
-      <c r="D137">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+      <c r="C138">
+        <v>17106800</v>
+      </c>
+      <c r="D138">
+        <v>17106800</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C138">
-        <v>17021600</v>
-      </c>
-      <c r="D138">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+      <c r="C139">
+        <v>17050278</v>
+      </c>
+      <c r="D139">
+        <v>17050278</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C139">
-        <v>17017203</v>
-      </c>
-      <c r="D139">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
+      <c r="C140">
+        <v>17043069</v>
+      </c>
+      <c r="D140">
+        <v>17043069</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C140">
-        <v>17021707</v>
-      </c>
-      <c r="D140">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+      <c r="C141">
+        <v>17018820</v>
+      </c>
+      <c r="D141">
+        <v>17018820</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C141">
-        <v>17021804</v>
-      </c>
-      <c r="D141">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+      <c r="C142">
+        <v>17043026</v>
+      </c>
+      <c r="D142">
+        <v>17043026</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C142">
-        <v>17106800</v>
-      </c>
-      <c r="D142">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
+      <c r="C143">
+        <v>17039150</v>
+      </c>
+      <c r="D143">
+        <v>17039150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C143">
-        <v>17050278</v>
-      </c>
-      <c r="D143">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
+      <c r="C144">
+        <v>17052823</v>
+      </c>
+      <c r="D144">
+        <v>17052823</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C144">
-        <v>17043069</v>
-      </c>
-      <c r="D144">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
+      <c r="C145">
+        <v>17051746</v>
+      </c>
+      <c r="D145">
+        <v>17051746</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C145">
-        <v>17018820</v>
-      </c>
-      <c r="D145">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
+      <c r="C146">
+        <v>17049253</v>
+      </c>
+      <c r="D146">
+        <v>17049253</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C146">
-        <v>17043026</v>
-      </c>
-      <c r="D146">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C147">
-        <v>17039150</v>
+        <v>17107806</v>
       </c>
       <c r="D147">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C148">
-        <v>17052823</v>
-      </c>
-      <c r="D148">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C149">
-        <v>17051746</v>
-      </c>
-      <c r="D149">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C150">
-        <v>17049253</v>
-      </c>
-      <c r="D150">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C151">
         <v>17107806</v>
-      </c>
-      <c r="D151">
-        <v>123456</v>
       </c>
     </row>
   </sheetData>
